--- a/Data Entry/Zooplankton/Zooplankton Collection/ANX Zooplankton Collection Data.xlsx
+++ b/Data Entry/Zooplankton/Zooplankton Collection/ANX Zooplankton Collection Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cjf63\Documents\GitHub\triploid-walleye-labwork\Data Entry\Zooplankton\Zooplankton Collection\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/BANGIRAS/Documents/GitHub/triploid-walleye-labwork/Data Entry/Zooplankton/Zooplankton Collection/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EC5BA1-E9B0-3248-950A-C192061017D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="10185"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13620" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,84 +25,102 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Collin Farrell</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-3 Character Waterbody Code + MMDDYY + L (L is code for limnology)</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3 Character Waterbody Code + MMDDYY + L (L is code for limnology)</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-YYYYMMDD</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>YYYYMMDD</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +128,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -118,14 +137,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 sample id on zooplankton sampling data sheet</t>
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +152,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -142,14 +161,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 military time</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -157,7 +176,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -166,7 +185,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 max depth
@@ -174,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -182,7 +201,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -191,7 +210,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 IF Mesh = 153, WIS
@@ -199,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -207,7 +226,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -216,7 +235,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 IF Mesh = 153, 0.2
@@ -224,31 +243,40 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-153 or 500</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>153 or 500</t>
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +284,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -265,14 +293,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Always A</t>
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +308,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -289,7 +317,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 If Dilution (ml) = ---, NA
@@ -297,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -305,7 +333,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Collin Farrell:</t>
         </r>
@@ -314,7 +342,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Always ZEISS</t>
@@ -326,7 +354,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="48">
   <si>
     <t>limnoid</t>
   </si>
@@ -389,13 +417,94 @@
   </si>
   <si>
     <t>ANX081418L</t>
+  </si>
+  <si>
+    <t>ANX081418Z02</t>
+  </si>
+  <si>
+    <t>ANX081418Z03</t>
+  </si>
+  <si>
+    <t>ANX091818Z01</t>
+  </si>
+  <si>
+    <t>ANX091818Z02</t>
+  </si>
+  <si>
+    <t>ANX091818Z03</t>
+  </si>
+  <si>
+    <t>ANX040819Z01</t>
+  </si>
+  <si>
+    <t>ANX040819Z02</t>
+  </si>
+  <si>
+    <t>ANX040819Z03</t>
+  </si>
+  <si>
+    <t>ANX052919Z01</t>
+  </si>
+  <si>
+    <t>ANX052919Z02</t>
+  </si>
+  <si>
+    <t>ANX052919Z03</t>
+  </si>
+  <si>
+    <t>ANX052919Z04</t>
+  </si>
+  <si>
+    <t>ANX062019Z01</t>
+  </si>
+  <si>
+    <t>ANX062019Z02</t>
+  </si>
+  <si>
+    <t>ANX062019Z03</t>
+  </si>
+  <si>
+    <t>ANX062019Z04</t>
+  </si>
+  <si>
+    <t>ANX092419Z01</t>
+  </si>
+  <si>
+    <t>ANX092419Z02</t>
+  </si>
+  <si>
+    <t>ANX02</t>
+  </si>
+  <si>
+    <t>ANX03</t>
+  </si>
+  <si>
+    <t>Surface</t>
+  </si>
+  <si>
+    <t>ANX091819L</t>
+  </si>
+  <si>
+    <t>ANX040819L</t>
+  </si>
+  <si>
+    <t>ANX052919L</t>
+  </si>
+  <si>
+    <t>ANX062019L</t>
+  </si>
+  <si>
+    <t>ANX092419L</t>
+  </si>
+  <si>
+    <t>SIM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,22 +516,41 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -437,10 +565,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -721,27 +861,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="2"/>
+    <col min="9" max="9" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,44 +926,776 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>20180814</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>1820</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>2</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0.2</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <v>153</v>
       </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20180814</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1821</v>
+      </c>
+      <c r="G3" s="2">
+        <v>4</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>153</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2">
+        <v>20180814</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1815</v>
+      </c>
+      <c r="G4" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>153</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="2">
+        <v>20180918</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1709</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>153</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20180918</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1705</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="2">
+        <v>153</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20180918</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1900</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J7" s="2">
+        <v>153</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20190408</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1317</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J8" s="2">
+        <v>153</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2">
+        <v>30</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20190408</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1340</v>
+      </c>
+      <c r="G9" s="2">
+        <v>4</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J9" s="2">
+        <v>153</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2">
+        <v>30</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20190408</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1332</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>153</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="2">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="2">
+        <v>20190529</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1730</v>
+      </c>
+      <c r="G11" s="2">
+        <v>4</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>153</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="2">
+        <v>75</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="2">
+        <v>20190529</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1739</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="2">
+        <v>153</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="2">
+        <v>75</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2">
+        <v>20190529</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1740</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>500</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="2">
+        <v>153</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="2">
+        <v>100</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="2">
+        <v>5</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>153</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2">
+        <v>100</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1708</v>
+      </c>
+      <c r="G16" s="2">
+        <v>4</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>153</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L16" s="2">
+        <v>100</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="2">
+        <v>20190620</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J17" s="3">
+        <v>500</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L17" s="2">
+        <v>150</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="2">
+        <v>20190924</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1450</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>153</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="2">
+        <v>20190924</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1453</v>
+      </c>
+      <c r="G19" s="2">
+        <v>4</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J19" s="2">
+        <v>153</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="2">
+        <v>20</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2">
+        <v>20190924</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1440</v>
+      </c>
+      <c r="G20" s="2">
+        <v>2</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="J20" s="2">
+        <v>153</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>19</v>
       </c>
     </row>
